--- a/story_xlsx_files_RECORDED/11.xlsx
+++ b/story_xlsx_files_RECORDED/11.xlsx
@@ -29,13 +29,13 @@
     <t>socialEventSize</t>
   </si>
   <si>
+    <t>socialAnswer</t>
+  </si>
+  <si>
+    <t>locationAnswer</t>
+  </si>
+  <si>
     <t>story</t>
-  </si>
-  <si>
-    <t>socialAnswer</t>
-  </si>
-  <si>
-    <t>locationAnswer</t>
   </si>
   <si>
     <r>
@@ -329,7 +329,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -487,7 +487,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -497,8 +497,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -522,7 +525,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,7 +1609,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1614,8 +1617,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="165.242" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1634,687 +1645,731 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="3"/>
+      <c r="G1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="H1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="I1" t="s" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="350" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="44" customHeight="1">
+      <c r="A2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" ht="68.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" ht="80.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="116.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" ht="151.8" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" ht="25.8" customHeight="1">
+      <c r="A6" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="97.8" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" ht="25.8" customHeight="1">
+      <c r="A7" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" ht="187.8" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="25.8" customHeight="1">
+      <c r="A8" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" ht="169.8" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="25.8" customHeight="1">
+      <c r="A9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
         <v>9</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" ht="115.8" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" ht="25.8" customHeight="1">
+      <c r="A10" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" ht="151.8" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" ht="25.8" customHeight="1">
+      <c r="A11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" ht="79.8" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" ht="25.8" customHeight="1">
+      <c r="A12" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" ht="97.8" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" ht="25.8" customHeight="1">
+      <c r="A13" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" ht="79.8" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" ht="25.8" customHeight="1">
+      <c r="A14" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" ht="61.8" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" ht="25.8" customHeight="1">
+      <c r="A15" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10">
         <v>22</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" ht="331.8" customHeight="1">
-      <c r="A16" t="s" s="11">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" ht="43.8" customHeight="1">
+      <c r="A16" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" ht="61.8" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" ht="25.8" customHeight="1">
+      <c r="A17" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" ht="223.8" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" ht="25.8" customHeight="1">
+      <c r="A18" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>2</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" ht="241.8" customHeight="1">
-      <c r="A19" t="s" s="11">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" ht="43.8" customHeight="1">
+      <c r="A19" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>2</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>17</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" ht="151.8" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" ht="25.8" customHeight="1">
+      <c r="A20" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" ht="187.8" customHeight="1">
-      <c r="A21" t="s" s="11">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" ht="25.8" customHeight="1">
+      <c r="A21" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" ht="295.8" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" ht="43.8" customHeight="1">
+      <c r="A22" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
         <v>2</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" ht="97.8" customHeight="1">
-      <c r="A23" t="s" s="11">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" ht="25.8" customHeight="1">
+      <c r="A23" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
         <v>2</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" ht="151.8" customHeight="1">
-      <c r="A24" t="s" s="11">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" ht="25.8" customHeight="1">
+      <c r="A24" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="B24" s="8">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
         <v>2</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" ht="133.8" customHeight="1">
-      <c r="A25" t="s" s="11">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" ht="25.8" customHeight="1">
+      <c r="A25" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
         <v>2</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" ht="79.8" customHeight="1">
-      <c r="A26" t="s" s="11">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" ht="25.8" customHeight="1">
+      <c r="A26" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="B26" s="8">
-        <v>3</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" ht="187.8" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" ht="25.8" customHeight="1">
+      <c r="A27" t="s" s="12">
         <v>33</v>
       </c>
-      <c r="B27" s="8">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" ht="97.8" customHeight="1">
-      <c r="A28" t="s" s="11">
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" ht="25.8" customHeight="1">
+      <c r="A28" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="B28" s="8">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" ht="97.8" customHeight="1">
-      <c r="A29" t="s" s="11">
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" ht="25.8" customHeight="1">
+      <c r="A29" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="B29" s="8">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" ht="151.8" customHeight="1">
-      <c r="A30" t="s" s="11">
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" ht="25.8" customHeight="1">
+      <c r="A30" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="B30" s="8">
-        <v>3</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" ht="115.8" customHeight="1">
-      <c r="A31" t="s" s="11">
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" ht="25.8" customHeight="1">
+      <c r="A31" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="B31" s="8">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" ht="151.8" customHeight="1">
-      <c r="A32" t="s" s="11">
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" ht="25.8" customHeight="1">
+      <c r="A32" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="B32" s="8">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="10">
         <v>20</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" ht="151.8" customHeight="1">
-      <c r="A33" t="s" s="11">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" ht="25.8" customHeight="1">
+      <c r="A33" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="9">
         <v>4</v>
       </c>
-      <c r="C33" s="9">
-        <v>3</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" ht="97.8" customHeight="1">
-      <c r="A34" t="s" s="11">
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" ht="25.8" customHeight="1">
+      <c r="A34" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="9">
         <v>4</v>
       </c>
-      <c r="C34" s="9">
-        <v>3</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" ht="97.8" customHeight="1">
-      <c r="A35" t="s" s="11">
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" ht="25.8" customHeight="1">
+      <c r="A35" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="9">
         <v>4</v>
       </c>
-      <c r="C35" s="9">
-        <v>3</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" ht="97.8" customHeight="1">
-      <c r="A36" t="s" s="11">
+      <c r="C35" s="10">
+        <v>3</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" ht="25.8" customHeight="1">
+      <c r="A36" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="9">
         <v>4</v>
       </c>
-      <c r="C36" s="9">
-        <v>3</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" ht="295.8" customHeight="1">
-      <c r="A37" t="s" s="11">
+      <c r="C36" s="10">
+        <v>3</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" ht="43.8" customHeight="1">
+      <c r="A37" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="9">
         <v>4</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="10">
         <v>4</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" ht="115.8" customHeight="1">
-      <c r="A38" t="s" s="11">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" ht="25.8" customHeight="1">
+      <c r="A38" t="s" s="12">
         <v>44</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>4</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="10">
         <v>4</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" ht="169.8" customHeight="1">
-      <c r="A39" t="s" s="11">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" ht="25.8" customHeight="1">
+      <c r="A39" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>4</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="10">
         <v>4</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" ht="151.8" customHeight="1">
-      <c r="A40" t="s" s="11">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" ht="25.8" customHeight="1">
+      <c r="A40" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>4</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>4</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" ht="169.8" customHeight="1">
-      <c r="A41" t="s" s="11">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" ht="25.8" customHeight="1">
+      <c r="A41" t="s" s="12">
         <v>47</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>4</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="10">
         <v>4</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" ht="205.8" customHeight="1">
-      <c r="A42" t="s" s="11">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" ht="25.8" customHeight="1">
+      <c r="A42" t="s" s="12">
         <v>48</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>4</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="10">
         <v>4</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="10">
         <v>13</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="10">
         <v>5</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
